--- a/_ConfigExcels/Datas/enemy_type_index.xlsx
+++ b/_ConfigExcels/Datas/enemy_type_index.xlsx
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
